--- a/data/hotels_by_city/Dallas/Dallas_shard_442.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_442.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="564">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>lknight797</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>ourdream3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r585626820-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>This was a very nice hotel with a very professional and helpful staff. I would definitely stay here again.  They provide a nice breakfast in morning and anything else you may need during your stay.....More</t>
   </si>
   <si>
+    <t>Happy_Guest_From_Hou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r583727963-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>Excellent staff and very clean property.  The swimming pool area is a nice retreat from the elements as well as the outdoor seating area.  The inside lobby is welcoming as well.  Great customer service by employee M. Canedo!More</t>
   </si>
   <si>
+    <t>Amber R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r581695405-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -258,6 +270,9 @@
     <t>Best place to stay when visiting the area!  Rooms are clean and spacious. Free breakfast is amazing.  Hotel staff are friendly and attentive to your needs.  Outdoor pool was fun for the kids and it's super close to Top Golf, which the kids really enjoyed as well.  We love this hotel!More</t>
   </si>
   <si>
+    <t>KSLENEWS33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r579632396-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -282,6 +297,9 @@
     <t>This hotel was a random choice but turned out to be an excellent choice. Located right next to Top Golf with easy access to anything you need. Guy at the front desk was amazingly friendly and courteous, hotel was very nice and clean, room was excellent. Great job!!! Great hotel!!! More</t>
   </si>
   <si>
+    <t>Sarah K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r570597761-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>This was a very new hotel and very nice. The people at the front desk were helpful and they allowed us to check out late, which was great. It was close to highway so a little noisy, but I live in a city so I am used to noise.More</t>
   </si>
   <si>
+    <t>tony s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r569961033-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>The overall hotel is wonderful.  There are setbacks, no microwave in the room for extended stays.  The hot water went out for the morning shower.  The restaurant is not a real one but the front desk cooking on demand and I'm not certain its a real kitchen.  Front desk gets confused when the situation seems to complex.</t>
   </si>
   <si>
+    <t>Lorroth1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r565492658-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -351,6 +375,9 @@
     <t>When we visited the hotel was still fairly new, or so it looked.  The grounds, lobby, hallways etc were all very clean.  Our room was amazing!!  Very clean and spacious.  The breakfast offerings are varied and all very good!!!  We will be back if we are ever in that area again!  Thank you Michael for everything.More</t>
   </si>
   <si>
+    <t>curtfreeze</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r565181117-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>Hyatt place is clean. Right next to Top Golf n many local restaurants.  Staff was friendly &amp; attentive.  Continental  Breakfast is above average- Eggs, Toast, waffles, cereal, muffins, milk, OJ, Coffee.  Room was clean and spacious More</t>
   </si>
   <si>
+    <t>chivonblack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r563023975-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -402,6 +432,9 @@
     <t>I came to the Hyatt Place to throw my 11 year old daughter a sleepover for her birthday. Usually when you go to a hotel with 8 crazy preteens you can feel the apprehension from the hotel staff. But not at the Hyatt. Tamera, Courtney and Micheal were so helpful and accommodating. I will most definitely use this location again in the future!More</t>
   </si>
   <si>
+    <t>Jackie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r558145971-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -426,6 +459,9 @@
     <t>Absolutely the BEST customer service we have had in all of Dallas area. Tamera was kind and helpful and just awesome. We would come back just to see her. Thanks for the amazing customer service!  Joel and JackieMore</t>
   </si>
   <si>
+    <t>Drew C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r557998253-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -444,6 +480,9 @@
     <t>We have traveled across this country in many hotels and this is by far the best experience that we have had!! Tamera, was by far the best representative of the Hyatt we could have asked for!! Soo happy we booked here!!More</t>
   </si>
   <si>
+    <t>Michele K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r556668472-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -471,6 +510,9 @@
     <t>If you want to feel important stay at this hotel! The staff is amazing. They seem to genuinely care about your well-being. My room was on the first floor and I normally travel with a fan to block out noise at hotels. However, my room was extremely quiet and tranquil. If I'm ever in this area again we will definitely stay here. Topgolf is right across from the hotel which is a lot of fun as well!! More</t>
   </si>
   <si>
+    <t>Gregory W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r556586159-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -489,12 +531,18 @@
     <t>This hotel is absolutely the best place to stay! It is extremely comfortable and clean.  The breakfast is delicious and different each day.  The beds are very comfortable, the best I've slept on by far.  The rooms are large and well furnished.  The window shade is even excellent, keeping the room nice and dark at night.  It is easily accessible, with plenty of parking and lots of restaurants around.  Above and beyond all of this excellence are the people working here.  They make you feel at home, and just like family.  They remember your name and every detail you share with them. We found the guest host, Michael, to be particularly helpful and welcoming.  We have never encountered someone so refreshing and genuinely caring and helpful, and we travel frequently.  Hands down this is an excellent place to stay.  We are in the area frequently, and will not consider staying anywhere but here.More</t>
   </si>
   <si>
+    <t>Steve R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r554833161-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
     <t>554833161</t>
   </si>
   <si>
+    <t>406danas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r548156916-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -522,6 +570,9 @@
     <t>This hotel is one of the best Hyatt Place hotels I have stayed at, the rooms are nice and clean and the beds are very good, the customer service is outstanding and the free breakfast is very good with a lot of selections.More</t>
   </si>
   <si>
+    <t>V3633VLbrianl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r547986970-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -540,6 +591,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>jamesbS248EP</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r547126231-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -555,6 +609,9 @@
     <t>Responded December 20, 2017</t>
   </si>
   <si>
+    <t>O1060IJkellyh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r546754864-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -564,6 +621,9 @@
     <t>12/11/2017</t>
   </si>
   <si>
+    <t>audreyj580</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r544901861-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -591,6 +651,9 @@
     <t>During our stay we were treated with professionalism and felt welcome. This is a beautiful hotel. I would rate it a 5 star hotel. After traveling by car for two days, we were pleasantly surprised at our guest room, it very inviting and I slept well. Everything one needed for a comfortable nights sleep was available.More</t>
   </si>
   <si>
+    <t>maureenf608</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r534179544-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -618,6 +681,9 @@
     <t>I spent 11 nights at the Hyatt Place in The Colony, TX. The staff is remarkable and very accommodating! I especially want to thank Michael, Tamara and Sergio for making my stay so fantastic!I thought I was leaving the area and ended up having to stay a few extra days so I of course booked again at the Hyatt Place in The Colony. Highly recommend this hotel: it was clean, very quiet and like I said the staff is amazing!More</t>
   </si>
   <si>
+    <t>H5004YIcharlesm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r533590037-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -636,6 +702,9 @@
     <t>My family and I stayed at the Hyatt Place Dallas/The Colony location from October 13th to October 15th. Michael provided excellent service. He  definitely is an asset to your company. Your whole staff was courteous and professional.More</t>
   </si>
   <si>
+    <t>t0rriah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r532772720-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -648,12 +717,18 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Eldon J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r532772701-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
     <t>532772701</t>
   </si>
   <si>
+    <t>Mazen T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r532772694-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -669,6 +744,9 @@
     <t>Great and super clean Hotel. Service People are very friendly and always welling to help. beautiful and very quite rooms. Location also is really good almost all you need is around this area of the Colony,  Happy to be here.More</t>
   </si>
   <si>
+    <t>Debbie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r526900495-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -678,6 +756,9 @@
     <t>09/23/2017</t>
   </si>
   <si>
+    <t>Hans E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r526565590-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -702,6 +783,9 @@
     <t>Arrived very late. Checking in went very well. Very clean room, lots of space.WIFI quick and not 36 codes to enter first. No complaints. Just a good hotel. Breakfast was buffet and all you needed was there.More</t>
   </si>
   <si>
+    <t>bimmergal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r526411310-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -726,6 +810,9 @@
     <t>At first I was hesitant about my stay here because honestly I'm always nervous in any hotel BUT upon arrival the property is welcoming and inviting and what a surprise entering!  From the modern, contemporary decor to the staff that greets you as if they care you chose their property, to the continental breakfast with lots of choices and food that have you thinking in advance to the next days selection, to the manager that greets you with a smile even though he's seen you 4 days in a row, I can't say enough about the property but if you want clean and spacious rooms with a sectional sofa to lounge on, yes a sectional sofa in your room plus a swivel flat screen t.v, this is your place!  I was asked why do we pass so many hotels to come back to this one......I just described it!  I feel like I'm home away from home, you guys rock!More</t>
   </si>
   <si>
+    <t>YaleNYC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r525543610-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -750,12 +837,18 @@
     <t>This brand new Hyatt hotel deserves all the wonderful reviews it is getting. I stayed at this property for several nights and can report only positive things. The hotel is super-clean, comfortable, and has great staff (Tamera was so friendly from day one, and Michael is all-around incredible). This hotel also serves a very good (and free) breakfast. If you are looking for good food in the area, I recommend Emelia’s Tex-Mex, The Nest Cafe (salads and sandwiches), and the calzones at Tony's Pizza and Pasta.  Bottom line: I definitely recommend this hotel -- you won't be sorry.  More</t>
   </si>
   <si>
+    <t>constancec447</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r525636286-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
     <t>525636286</t>
   </si>
   <si>
+    <t>nathandV1467IT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r519177209-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -783,6 +876,9 @@
     <t>Staff was amazing, food was great, beds comfy. Hotel extremely clean. I'm extremely picky and this was hands down the best experience I've ever had at a hotel. Hyatt will forever now have my business. More</t>
   </si>
   <si>
+    <t>Victoria B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r518130071-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -798,6 +894,9 @@
     <t>There is not enough room to express the amazing qualities of this hotel. Everything was great. Great location, great staff (Thank you Tamara), great breakfast, and clean beautifully designed rooms. Thank you!</t>
   </si>
   <si>
+    <t>larryt170</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r517531570-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -822,6 +921,9 @@
     <t>This was my first stay at a Hyatt Place and it was great.  I am usually am IHG snob and this was closest to my meeting (at Top Golf right next door) and it was a pleasant surprise!  Hotel was new, very clean and efficient staff.  Excellent breakfast that I would say is best complimentary in this class of hotel.  Staff was super friendly and helpful - thanks for a great experience, I may have to change my loyalty to Hyatt!More</t>
   </si>
   <si>
+    <t>lulus972</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r516503494-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -837,6 +939,9 @@
     <t>Tamera at the front desk was very friendly and helpful in getting checked in.  She made sure that special request of foam pillow was in room when checking in.  New hotel and very convenient to shopping, airport and restaurants.</t>
   </si>
   <si>
+    <t>richb480</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r515067841-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -855,6 +960,9 @@
     <t>Great hotel, friendly staff.  The hotel is fairly new I think, so there was a bit of a dry wall smell, but not overwhelming. Very nice lobby and breakfast was good.  Walking distance from Top Golf which was a huge plus.More</t>
   </si>
   <si>
+    <t>fredwZ8868RZ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r514622571-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -873,6 +981,9 @@
     <t>Wonderful facility, great staff, especially Michael who made sure we were comfortable during our stay.  We were relocating and stayed a week waiting for our mover to arrive.  I went to work and my wife stayed with our little dog.  The staff was very personable, made us feel welcome to our new location...love TexasMore</t>
   </si>
   <si>
+    <t>SweetLou1969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r513834068-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -891,6 +1002,9 @@
     <t>This hotel was truly great. We are a family of 5. We had two queens and a pull out couch. Everyone was comfortable and the room was very clean. The bathroom was nice. The breakfast which was included in your room charge was the best I have ever had for this type of promotion. Both the day and Night staff were super friendly and I think enjoyed there jobs. I highly recommend this hotel. Soccer Managers this is your hotel.More</t>
   </si>
   <si>
+    <t>tiff21x</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r513713823-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -912,6 +1026,9 @@
     <t>Wonderful new hotel in The Colony. Visiting family and I must say Im really impressed with this Hyatt. It's been open for 3 months or so and they had their Grand Opening yesterday. Friendly check in with David(or maybe his name is Miguel oops I feel bad I cant remember his name) and I really appreciate when an employee takes the time to tell guests where the amenities are in their hotel so you're not wondering where to go or how to get to gym or business center. Check In went smoothly. This hotel is great if you're on business or here for pleasure. Free breakfast, Free parking. There's a business room, small gym, pool, a little bar that was perfect for happy hour. They also sell a few lunch items like salads and sandwiches. Our room is really nice. VERY CLEAN. Plenty of room with its own living area/sofa, there is a mini fridge in the room so if you want to, you can pop over to Specs Liqours, thats right next door, and grab your favorite bottle of alcohol. We found some wine on sale and Front Desk was gracious enough to uncork it for us. The location is perfect, lots of restaurants and shops nearby in The Colony and we're literally next door to Top Golf so unfortunately now, I've run out of excuses not to go there. I hate golf but I hear they have lots...Wonderful new hotel in The Colony. Visiting family and I must say Im really impressed with this Hyatt. It's been open for 3 months or so and they had their Grand Opening yesterday. Friendly check in with David(or maybe his name is Miguel oops I feel bad I cant remember his name) and I really appreciate when an employee takes the time to tell guests where the amenities are in their hotel so you're not wondering where to go or how to get to gym or business center. Check In went smoothly. This hotel is great if you're on business or here for pleasure. Free breakfast, Free parking. There's a business room, small gym, pool, a little bar that was perfect for happy hour. They also sell a few lunch items like salads and sandwiches. Our room is really nice. VERY CLEAN. Plenty of room with its own living area/sofa, there is a mini fridge in the room so if you want to, you can pop over to Specs Liqours, thats right next door, and grab your favorite bottle of alcohol. We found some wine on sale and Front Desk was gracious enough to uncork it for us. The location is perfect, lots of restaurants and shops nearby in The Colony and we're literally next door to Top Golf so unfortunately now, I've run out of excuses not to go there. I hate golf but I hear they have lots of bars so maybe thats their saving grace. Back to hotel, Rates are VERY reasonable here at the Hyatt. We only paid $112 a night and you can either book directly thru the Hyatt website or on TripAdvisor where I got the good deal! We'll totally make this our base hotel when I come back.More</t>
   </si>
   <si>
+    <t>Tudalu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r512013155-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1053,9 @@
     <t>We really like this place! It is extremely conveniently located for teams playing at The Colony Five Star Complex (maybe 3 minutes away!). It is also next to Top Golf, which is a fun place for the teen boys to hang out. The lobby of the hotel is inviting and clean. They have coffee and free breakfast in the lobby. There are convenient snacks and drinks as well as spirits available for purchase. Our room was clean, spacious and offered a fridge and one cup coffee maker. The bathroom is a good size with a large shower. Our housekeeper did a good job of cleaning up after us.  Also, I was very thankful they accommodated my request for a late checkout. I wanted my athletes to have access to the shower once more before the long drive home.Thanks for the great hospitality!More</t>
   </si>
   <si>
+    <t>hbranham</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r511612625-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1069,9 @@
   </si>
   <si>
     <t xml:space="preserve">The customer service was fantastic! Not only did they help us with navigation, recommend restaurants, and work with our soccer schedule, they offered to drive us to the laundry mat to wash our uniforms. The rooms were clean and modern. The staff eS more than accommodating to our soccer team's needs. </t>
+  </si>
+  <si>
+    <t>patriotfireaz</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r510766243-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
@@ -976,6 +1099,9 @@
 After the services were over, we asked if would be okay that some of our family members could come and visit with us in their well furnished lobby. They were very gracious and allowed us to do so.  We had about 20 of our family there, we were allowed to move chairs, etc to make sure were all together, we ordered pizza from a place they recommended that was fantastic, served us all ice water while we sat and talked, without us asking, just being nice and attentive...I could go on and on....My...My family and I traveled from Arizona to Dallas for a funeral of a family member.  Our experience at this hotel was nothing short of amazing.  We were forced to change our reservation from another hotel to this one due to a police issue that was going on at that other location. How pleased we were that it was necessary...upon arrival the modern decor and beautiful layout was already much better than expected. The staff assisted us promptly and inquired about the reasons for our stay and we explained.Without saying anything other than offering condolences, they clearly kept us in mind and the sensitivities of our stay.  They were so attentive to our needs that I felt we were in a 5 star resort!!  I'm not sure if they are that well trained or just amazing people but we were very impressed to say the least.After the services were over, we asked if would be okay that some of our family members could come and visit with us in their well furnished lobby. They were very gracious and allowed us to do so.  We had about 20 of our family there, we were allowed to move chairs, etc to make sure were all together, we ordered pizza from a place they recommended that was fantastic, served us all ice water while we sat and talked, without us asking, just being nice and attentive...I could go on and on....My biggest and most personal compliment is for the manager on duty Tamara. She is sometimes called "Paula Dean", a sweet southern accent, southern bell charm and a heart as big as Texas itself.  I appreciate you Tamara for showing so much attention and love to my family.  Whenever I travel to the Dallas area again, it will be this hotel for sure, especially if Tamara is working there... promote this woman Hyatt!! You do not want to lose a Gem like her!!!  I also want to extend thanks to the entire staff, The GM was also amazing. His positive leadership shows through big time!!!We travel quite a bit and i have not been treated like this from a so called 'chain" hotel EVER!  Keep doing what your doing Hyatt Place - The Colony, TX. You are truly the example of what all hotels should aspire to.More</t>
   </si>
   <si>
+    <t>rpj-mdj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r509829063-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -994,6 +1120,9 @@
     <t>We had great reception from staff the minute we walked in the door. The hotel is new and modern with clean spacious rooms. Loved having a sitting area in a standard room. Wide variety of cold or hot breakfast with plenty of seating. They also have a full service bar which includes Starbucks's specialty coffees too. Great stay in great location! More</t>
   </si>
   <si>
+    <t>633austinh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r509913601-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1003,6 +1132,9 @@
     <t>Sweta S, Assistant General Manager at Hyatt Place Dallas / The Colony, responded to this reviewResponded August 16, 2017</t>
   </si>
   <si>
+    <t>LegacyMA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r509772804-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1147,9 @@
     <t>The title says it, but the staff at this Hyatt Place was top notch! Extremely friendly, lots of "sir/ma'am" and "good morning" and smiles. They did their best to accommodate every need, and took the time to be personable without neglecting others.Room was great for the price; all necessary amenities were provided with a clean feel and look. Will definitely be staying here next time we make the trip to the DFW area.</t>
   </si>
   <si>
+    <t>nicolenh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r509379732-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1033,6 +1168,9 @@
     <t>My son and I took a week long vacation in the DFW area and I was excited to see a new Hyatt Place had been built in The Colony.  We stayed for 4 nights and everything was perfect!  Michael, the Host, was extremely helpful and made sure we had everything we needed.  He was personable and welcomed us like family!I highly recommend staying at this location, the area is up and coming, there are lots of great restaurants and other businesses nearby.  Easy access to the highway to get to major shopping or the stadiums.A small negative is there is no guest laundry available on premise, I had to find a laundromat in the area.  I think this Hyatt Place would benefit by having at least 2 washer and dryers available to guests.All in all - 5 stars!  Thank you Hyatt and thank you Michael!More</t>
   </si>
   <si>
+    <t>Mickey B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r508584858-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1057,6 +1195,9 @@
     <t>For over a month I stayed here at The Hyatt Place, and it's been wonderful. Everyday my room has been cleaned, every day the staff greets me with a "Good morning Mr. Brock!" They have taken the time to get to know me and without hesitation taken care of any needs I may have had. Michael, Tamera, Sergio, Courtney, and Tiffany are the front of house staff that has taken care of me on a day to day basis, while Cash and Sweta (the managers) have also without question been awesome. The rooms are clean, and the housekeepers have been on point. You're missing out if you do not stay here.More</t>
   </si>
   <si>
+    <t>lescalera1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r507618998-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1072,6 +1213,9 @@
     <t xml:space="preserve">This hotel is by far the most welcoming and helpful staff I have encountered at a hotel. Micheal and Tamara always greeted us with a smile and made sure we had everything we needed including good company and conversation! I would strongly recommend this hotel to anyone traveling in this area. </t>
   </si>
   <si>
+    <t>J W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r507574393-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1228,9 @@
     <t xml:space="preserve">We recommend this hotel for anyone needing to stay in the area. It's in a good, safe location. Very friendly staff. Hotel appears to be pretty new. Everything is very nice, clean &amp; comfortable (best sleeper sofa we've ever used as well). Breakfast was good. The kids enjoyed the pool. </t>
   </si>
   <si>
+    <t>Darnell Larry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r507224812-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1105,6 +1252,9 @@
     <t>very clean , supremely courteous staff, obviously they go out of their way to make every guest feel special. Great breakfast, fresh berries, bacon, sausage, the works.Conveniently locate right off the highway, great area, water park right down the streetMore</t>
   </si>
   <si>
+    <t>Warfield T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r505994870-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1120,6 +1270,9 @@
     <t>Recommend this hotel!!!! The staff above all, is the best part of staying here. All are very courteous, accommodating and can tell they truly care about their guest. I've booked with this hotel for the last two months and haven't had any major issues. Any concerns are addressed immediately and truly thank Ms Tamera and team for their professionalism and making guest feel welcomed!</t>
   </si>
   <si>
+    <t>Sean Charles M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r504076758-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1129,6 +1282,9 @@
     <t>07/16/2017</t>
   </si>
   <si>
+    <t>Worldtrvler16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r501765919-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1153,6 +1309,9 @@
     <t>I've stayed in so many different places, so I recognize incredible customer service when I see it... Ms Tamera at this hotel is the absolute BEST.  She's got such a beautiful spirit and makes every customer feel like home away from home.  Please promote her or give her a huge raise... she deserves it and the reason that I would go back!❤️More</t>
   </si>
   <si>
+    <t>739richellej</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r501686112-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1165,6 +1324,9 @@
     <t>The hotel is relatively new, so everything was in pristine condition. The staff and management were pleasant and helpful. I will definitely visit The Colony again just so I can stay at this property. It was awesome!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r501640921-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1180,6 +1342,9 @@
     <t>We did a work training here and I can't even begin to say how AMAZING the staff is!  From the front desk, to kitchen, to management, everyone!!!  This place was even more gorgeous than any other place to train and I was floored it was cheaper too!  Very affordable for top of the line rooms!  This hotel is brand new and it shows!  Built very beautifully!  I can't thank Natalie and her staff enough for their hospitality and helping me when I needed some things for my class to go smoothly!  Above and beyond expectations!  We are now booking with the Hyatt around the US for further trainings!  And any in Dallas, well Natalie and her staff will see our faces then!  Thank you again for everything!!!!   ☺️❤️❤️More</t>
   </si>
   <si>
+    <t>sksmidwest</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r498882075-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1195,6 +1360,9 @@
     <t>We loved our 2-night stay at this hotel.  We had just come from a larger resort hotel (nameless), where there was a charge for everything.  Our kids kept asking "do we have to pay for this?"  When we arrived at the Hyatt Place, the hotel staff was super-friendly from the time we walked through the door.  They apologized that they needed another 5 minutes to get our room ready and offered to make us iced coffees (on the house) while we waited.  We all looked at each other and said "We're not at the {previous hotel} any more!"  The room was comfortable for our family of four.  The fitness center wasn't huge, but the equipment was well-maintained.  The breakfasts were fantastic.  Good selection of eggs, fruit, yogurt, granola, oatmeal, and much more.  We loved getting our days started with a healthy breakfast.  The first morning, the carafe of coffee was empty and the staff was right there to make a fresh-brewed cup of coffee for me while the carafe was refilled.  Location was great.  We were 5 minutes from Frisco, where we enjoyed a Roughriders baseball game and some other attractions.Would highly recommend this hotel.More</t>
   </si>
   <si>
+    <t>tylerhE839SS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r499310123-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1204,6 +1372,9 @@
     <t>June 2017</t>
   </si>
   <si>
+    <t>Aroc35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r497565501-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1219,6 +1390,9 @@
     <t xml:space="preserve">I really enjoyed my stay here.  The hotel is in a great location. The rooms were very clean and nice. The staff was very friendly, professional and accommodating.  I would definitely recommend staying here. </t>
   </si>
   <si>
+    <t>Henning V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r497294044-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1234,12 +1408,18 @@
     <t>The Hyatt Place Dallas / The Colony is brand new, open 6 weeks as of yesterday. That alone would be reason to celebrate because who doesn't love a shiny new room. But even more important, the hotel is run by the friendliest people working to make each stay as pleasant as possible. It's in a convenient location to major highways, shopping, dining etc. as well but the key are still the incredibly friendly people.</t>
   </si>
   <si>
+    <t>P7791CLdavids</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r497337266-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
     <t>497337266</t>
   </si>
   <si>
+    <t>Jo S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r495915951-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1435,9 @@
     <t>We spent 3 nights at this Very clean, Very quiet, Very friendly, Very comfortable hotel.  Absolutely The Best front office staff!!  Tamera was so very helpful and kind.  Michael is very friendly!  The hotel has a free shuttle and I took advantage of it.We will definitely stay here again and check out other Hyatt Place properties.</t>
   </si>
   <si>
+    <t>K570AMbenjaminm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r495704064-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1270,6 +1453,9 @@
     <t>Convenient location, clean, wonderful breakfast with new selections each day and a kind staff! We had a wonderful wee exploring dallas and we're glad to come home to the Hyatt place each night! Great new hotel!</t>
   </si>
   <si>
+    <t>Kankan6427</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r495488614-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1288,12 +1474,18 @@
     <t>This hotel is Amazing!  The staff was soooooaccommodating.  When we arrived we initially booked via a third part site which displayed low rates.  However, when we arrived the rates were significantly higher.  We explained this to the manager on duty and he honored the rates from the third party site.  Needless to say we will not be booking through that site anymore!  The hotel room was extremely clean! Although the hotel is 4 weeks old, there is still evidence that the housekeeping staff is thoroughly cleaning after each guest. The lobby area is very comfortable and modern.   The business center was nice as well.  Just wish he could have been in a more private area as it is located in Lobby with distractions.There are also tons of eateries and stores nearby! There is even a water park and top golf arena near by!! Nevertheless, awesome hotel and we will return! More</t>
   </si>
   <si>
+    <t>michaelaU2210JV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r495538848-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
     <t>495538848</t>
   </si>
   <si>
+    <t>Debbie0046</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r495131239-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1312,6 +1504,9 @@
     <t>Super clean and modern property, nice rooms.  Lovely patio area outside.  Inside the lobby layout is fun and functional -- you feel comfortable working here or being her for personal/vacation/social.Excellent breakfast -- better than any I have had included with stay at other places (and I am in hotels a lot).  Even nicer is the 24/7 Gallery Menu -- where you can get what you want, when you want, any time of day.But the people make this place what is really heads above the rest!  Sweta, Cash, Tamera and Michel spoiled me ridiculously.  Everyone is not only warm and friendly - but they are conversive and take a genuine interest in their hotel guests.  The service is industry best!More</t>
   </si>
   <si>
+    <t>Lorien T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r494711936-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1327,6 +1522,9 @@
     <t xml:space="preserve">Enjoyed our week long stay here while relocating. The hotel is brand new and beautiful. Rooms are very comfortable and immaculate. All the staff were friendly and helpful. Breakfast was really good and plentiful. We also loved all the open seating in lobby to relax in the evening or use the computer and printer. Overall a great place!  </t>
   </si>
   <si>
+    <t>mattsO4338VB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r494448406-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1336,6 +1534,9 @@
     <t>06/19/2017</t>
   </si>
   <si>
+    <t>Cole R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r492890794-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1351,12 +1552,18 @@
     <t xml:space="preserve">Michael at the Gallery and the AGM Kash were very pleasant and welcoming. They provide great service and a warm friendly environment. Nothing felt transactional, which is rare in today's society. Kudos to you both! I will most definitely recommend this establishment! </t>
   </si>
   <si>
+    <t>gersonj545</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r492914614-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
     <t>492914614</t>
   </si>
   <si>
+    <t>jamiemiloch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r492308524-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1381,6 +1588,9 @@
     <t>The staff was so helpful, I'm still in disbelief at how they went above and beyond for everything we needed or wanted.  The hotel is brand new (as of 06/2017) and it did not go unnoticed.  Everything is very well planned, and innovative.  The location was ideal for us as well.  If we are ever back in this area, that's where we will be staying.  Can't say enough good things about this place.  If I could give them 10 stars, I would.  Thanks again to our very welcoming staff members, Michael, Tamera, Kash and Tiffany.  I got to meet Aeriol as well, and everyone was just so awesome to talk to and be around.More</t>
   </si>
   <si>
+    <t>Zrydir</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r491252069-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1405,6 +1615,9 @@
     <t>Bright, Clean, Super Friendly, the folks here work hard, they truly seem to like their jobs and the people that stay at this Hyatt.  Our family had a fantastic stay, even the kiddos enjoyed chatting with the Hyatt folks.  Tamara was especially kind, thoughtful and helpful to our family! Walking to Top Golf is easy and Fun!More</t>
   </si>
   <si>
+    <t>kevingK745JU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r489775682-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1426,6 +1639,9 @@
     <t>This is the best hotel I've stayed in for a long time and it's equipment is clean as well. There's a outdoor pool and also a library area and work out area. The parking was good and there's restaurants down the street from this hotel. Also right next door is a hole in one golf area More</t>
   </si>
   <si>
+    <t>Kaitlyn G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r488307798-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1450,6 +1666,9 @@
     <t>Wow I'm amazed with this new and beautiful hotel! Michael and Tamera were exceptional hosts. They truly went above and beyond for us during our stay! This hotel is brand new and it shows in the decor, rooms, gym, restaurant, and bar. I would recommend this hotel to anyone and everyone coming into the area, you will not be disappointed! The property and customer service are out of this world! Thank you Hyatt for staffing such amazing people. More</t>
   </si>
   <si>
+    <t>Gary F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r487334623-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1472,6 +1691,9 @@
   </si>
   <si>
     <t>Spent the night at the newly opened Hyatt Place Dallas/The Colony. Located right beside a Top Golf facility. (Bring your clubs and check in early or stay late!)From the moment I drove onto the property, I knew this was the next generation of "Places". Bright, spacious, and friendly only begin to describe what I discovered. Excellent gym, great food, and my room was perfect in every regard. Fast internet and very quiet room; ended up working deeper into the night than usual because of the solitude, but woke up fresh and rested. Kudos to whomever picked the pillows for the rooms!The best part of the whole stay was the staff. Special thanks to Whitney, Kiran and Nick in particular. Really enjoyed chatting with them, and they were very helpful. This Hyatt Place gets my highest recommendation!Gary FullerMore</t>
+  </si>
+  <si>
+    <t>Stewart C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d12221930-r486402308-Hyatt_Place_Dallas_The_Colony-The_Colony_Texas.html</t>
@@ -1994,43 +2216,47 @@
       <c r="A2" t="n">
         <v>66027</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>161315</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2054,50 +2280,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>66027</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>161316</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2119,56 +2349,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>66027</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>161317</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2180,56 +2414,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>66027</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>33543</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2251,56 +2489,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>66027</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>161318</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2312,56 +2554,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>66027</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>36961</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -2383,56 +2629,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>66027</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>144158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2456,50 +2706,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>66027</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>161319</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2515,56 +2769,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>66027</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>161320</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2576,56 +2834,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>66027</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>161321</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2641,47 +2903,51 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>66027</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>24239</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
@@ -2698,56 +2964,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>66027</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>57205</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2759,56 +3029,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>66027</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>24385</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2830,56 +3104,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>66027</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>4147</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2897,38 +3175,42 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>66027</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J16" t="s"/>
       <c r="K16" t="s"/>
@@ -2945,51 +3227,52 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>66027</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>161322</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3011,54 +3294,58 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>66027</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>161323</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3080,54 +3367,58 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="X18" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>66027</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>161324</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3149,54 +3440,58 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>66027</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>161325</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3218,56 +3513,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>66027</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>161326</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3289,56 +3588,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="X21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="Y21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>66027</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>161327</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3350,56 +3653,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>66027</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>161328</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3421,54 +3728,58 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X23" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>66027</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>161329</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="O24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3488,54 +3799,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X24" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y24" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>66027</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>161330</v>
+      </c>
+      <c r="C25" t="s">
+        <v>233</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O25" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3557,56 +3872,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X25" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>66027</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>161331</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>4</v>
@@ -3628,54 +3947,58 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="X26" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="Y26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>66027</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>13740</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3697,56 +4020,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X27" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y27" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>66027</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>161332</v>
+      </c>
+      <c r="C28" t="s">
+        <v>246</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="J28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="K28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="L28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="O28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -3764,56 +4091,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="X28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="Y28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>66027</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>161333</v>
+      </c>
+      <c r="C29" t="s">
+        <v>255</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="J29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="K29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="L29" t="s">
+        <v>260</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
         <v>232</v>
       </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>209</v>
-      </c>
       <c r="O29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3831,47 +4162,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="X29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="Y29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>66027</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>161334</v>
+      </c>
+      <c r="C30" t="s">
+        <v>264</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="J30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="K30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
@@ -3888,54 +4223,58 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="X30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="Y30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>66027</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>161335</v>
+      </c>
+      <c r="C31" t="s">
+        <v>273</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="O31" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3957,56 +4296,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="X31" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="Y31" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>66027</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>161336</v>
+      </c>
+      <c r="C32" t="s">
+        <v>276</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="J32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="K32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="L32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O32" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4028,56 +4371,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="X32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="Y32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>66027</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>63544</v>
+      </c>
+      <c r="C33" t="s">
+        <v>286</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="J33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="K33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4091,50 +4438,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>66027</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>161337</v>
+      </c>
+      <c r="C34" t="s">
+        <v>292</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="J34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="K34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4150,56 +4501,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="X34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="Y34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>66027</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>161338</v>
+      </c>
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="K35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4217,50 +4572,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>66027</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>161339</v>
+      </c>
+      <c r="C36" t="s">
+        <v>307</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="J36" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="K36" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="L36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4282,56 +4641,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="X36" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="Y36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>66027</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>161340</v>
+      </c>
+      <c r="C37" t="s">
+        <v>314</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="J37" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="K37" t="s">
+        <v>318</v>
+      </c>
+      <c r="L37" t="s">
+        <v>319</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
         <v>282</v>
       </c>
-      <c r="L37" t="s">
-        <v>283</v>
-      </c>
-      <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>251</v>
-      </c>
       <c r="O37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4353,56 +4716,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="X37" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="Y37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>66027</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>161341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>321</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="J38" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="K38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="L38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4414,56 +4781,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="X38" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="Y38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>66027</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>27147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>328</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="J39" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="K39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O39" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4479,56 +4850,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="X39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="Y39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>66027</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>161342</v>
+      </c>
+      <c r="C40" t="s">
+        <v>336</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="J40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="K40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4540,56 +4915,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="X40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="Y40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>66027</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>161343</v>
+      </c>
+      <c r="C41" t="s">
+        <v>345</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="J41" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4603,50 +4982,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>66027</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>161344</v>
+      </c>
+      <c r="C42" t="s">
+        <v>351</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="J42" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="K42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4662,56 +5045,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="X42" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="Y42" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>66027</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>161345</v>
+      </c>
+      <c r="C43" t="s">
+        <v>359</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="J43" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="K43" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="L43" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4733,54 +5120,58 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="X43" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="Y43" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>66027</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>161346</v>
+      </c>
+      <c r="C44" t="s">
+        <v>366</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="J44" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4802,56 +5193,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="X44" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="Y44" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>66027</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>161347</v>
+      </c>
+      <c r="C45" t="s">
+        <v>370</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="J45" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="K45" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="L45" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4869,50 +5264,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>66027</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>161348</v>
+      </c>
+      <c r="C46" t="s">
+        <v>375</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="J46" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="K46" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="L46" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4930,50 +5329,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>66027</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>161349</v>
+      </c>
+      <c r="C47" t="s">
+        <v>382</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="J47" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="K47" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="L47" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="O47" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -4991,56 +5394,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="X47" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="Y47" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>66027</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>161350</v>
+      </c>
+      <c r="C48" t="s">
+        <v>391</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="J48" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="K48" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="L48" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="O48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5054,50 +5461,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>66027</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>2168</v>
+      </c>
+      <c r="C49" t="s">
+        <v>397</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="J49" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="K49" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="L49" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5121,50 +5532,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>66027</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>161351</v>
+      </c>
+      <c r="C50" t="s">
+        <v>402</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="J50" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="K50" t="s">
+        <v>406</v>
+      </c>
+      <c r="L50" t="s">
+        <v>407</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
         <v>357</v>
       </c>
-      <c r="L50" t="s">
-        <v>358</v>
-      </c>
-      <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s">
-        <v>316</v>
-      </c>
       <c r="O50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5180,56 +5595,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="X50" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="Y50" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>66027</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>161352</v>
+      </c>
+      <c r="C51" t="s">
+        <v>410</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>361</v>
+        <v>411</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="J51" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="K51" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="L51" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="O51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5243,48 +5662,52 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>66027</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>161353</v>
+      </c>
+      <c r="C52" t="s">
+        <v>416</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>367</v>
+        <v>418</v>
       </c>
       <c r="J52" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="O52" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5308,50 +5731,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>66027</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>161354</v>
+      </c>
+      <c r="C53" t="s">
+        <v>420</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>369</v>
+        <v>421</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>370</v>
+        <v>422</v>
       </c>
       <c r="J53" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="K53" t="s">
-        <v>372</v>
+        <v>424</v>
       </c>
       <c r="L53" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="O53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5363,56 +5790,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="X53" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="Y53" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>66027</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>161355</v>
+      </c>
+      <c r="C54" t="s">
+        <v>429</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>377</v>
+        <v>430</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="J54" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="K54" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L54" t="s">
-        <v>379</v>
+        <v>432</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="O54" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5434,56 +5865,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="X54" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="Y54" t="s">
-        <v>380</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>66027</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>434</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J55" t="s">
-        <v>371</v>
+        <v>423</v>
       </c>
       <c r="K55" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="L55" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="O55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5495,56 +5930,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="X55" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="Y55" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>66027</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>161356</v>
+      </c>
+      <c r="C56" t="s">
+        <v>440</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="J56" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="K56" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="L56" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -5564,35 +6003,39 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>66027</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>161357</v>
+      </c>
+      <c r="C57" t="s">
+        <v>446</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="J57" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5600,10 +6043,10 @@
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5624,51 +6067,52 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>66027</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>161358</v>
+      </c>
+      <c r="C58" t="s">
+        <v>450</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="J58" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="K58" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="L58" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O58" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5692,50 +6136,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>66027</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>161359</v>
+      </c>
+      <c r="C59" t="s">
+        <v>456</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>400</v>
+        <v>458</v>
       </c>
       <c r="J59" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="K59" t="s">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="L59" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O59" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -5755,35 +6203,39 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>403</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>66027</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>161360</v>
+      </c>
+      <c r="C60" t="s">
+        <v>462</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="J60" t="s">
-        <v>401</v>
+        <v>459</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -5791,10 +6243,10 @@
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -5815,51 +6267,52 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>66027</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>69109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>465</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>406</v>
+        <v>466</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="J61" t="s">
-        <v>408</v>
+        <v>468</v>
       </c>
       <c r="K61" t="s">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="L61" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5873,50 +6326,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>410</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>66027</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>161361</v>
+      </c>
+      <c r="C62" t="s">
+        <v>471</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="J62" t="s">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="K62" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="L62" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5940,50 +6397,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>66027</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>161362</v>
+      </c>
+      <c r="C63" t="s">
+        <v>477</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>416</v>
+        <v>478</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>417</v>
+        <v>479</v>
       </c>
       <c r="J63" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="K63" t="s">
-        <v>419</v>
+        <v>481</v>
       </c>
       <c r="L63" t="s">
-        <v>420</v>
+        <v>482</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O63" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -5997,35 +6458,39 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>421</v>
+        <v>483</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>66027</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>161363</v>
+      </c>
+      <c r="C64" t="s">
+        <v>484</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="J64" t="s">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6033,10 +6498,10 @@
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6057,51 +6522,52 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>66027</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>161364</v>
+      </c>
+      <c r="C65" t="s">
+        <v>487</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="J65" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="K65" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="L65" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -6121,50 +6587,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>66027</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>161365</v>
+      </c>
+      <c r="C66" t="s">
+        <v>494</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="J66" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="K66" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="L66" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6188,48 +6658,52 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>66027</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>161366</v>
+      </c>
+      <c r="C67" t="s">
+        <v>500</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="J67" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -6253,50 +6727,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>66027</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>25975</v>
+      </c>
+      <c r="C68" t="s">
+        <v>504</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>439</v>
+        <v>506</v>
       </c>
       <c r="J68" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="K68" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="L68" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O68" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6310,35 +6788,39 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>66027</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>161367</v>
+      </c>
+      <c r="C69" t="s">
+        <v>510</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>443</v>
+        <v>511</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>444</v>
+        <v>512</v>
       </c>
       <c r="J69" t="s">
-        <v>440</v>
+        <v>507</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6346,10 +6828,10 @@
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O69" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -6370,51 +6852,52 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>66027</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>161368</v>
+      </c>
+      <c r="C70" t="s">
+        <v>513</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
       <c r="J70" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="K70" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
       <c r="L70" t="s">
+        <v>518</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
         <v>449</v>
       </c>
-      <c r="M70" t="n">
-        <v>5</v>
-      </c>
-      <c r="N70" t="s">
-        <v>393</v>
-      </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6430,56 +6913,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
       <c r="X70" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="Y70" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>66027</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>161369</v>
+      </c>
+      <c r="C71" t="s">
+        <v>522</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>453</v>
+        <v>523</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="J71" t="s">
-        <v>455</v>
+        <v>525</v>
       </c>
       <c r="K71" t="s">
-        <v>456</v>
+        <v>526</v>
       </c>
       <c r="L71" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="O71" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6491,56 +6978,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="X71" t="s">
-        <v>459</v>
+        <v>529</v>
       </c>
       <c r="Y71" t="s">
-        <v>460</v>
+        <v>530</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>66027</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>161370</v>
+      </c>
+      <c r="C72" t="s">
+        <v>531</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="J72" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="K72" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
       <c r="L72" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="O72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6562,56 +7053,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="X72" t="s">
-        <v>459</v>
+        <v>529</v>
       </c>
       <c r="Y72" t="s">
-        <v>467</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>66027</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>161371</v>
+      </c>
+      <c r="C73" t="s">
+        <v>539</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>468</v>
+        <v>540</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>469</v>
+        <v>541</v>
       </c>
       <c r="J73" t="s">
-        <v>470</v>
+        <v>542</v>
       </c>
       <c r="K73" t="s">
-        <v>471</v>
+        <v>543</v>
       </c>
       <c r="L73" t="s">
-        <v>472</v>
+        <v>544</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="O73" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -6623,56 +7118,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>473</v>
+        <v>545</v>
       </c>
       <c r="X73" t="s">
-        <v>474</v>
+        <v>546</v>
       </c>
       <c r="Y73" t="s">
-        <v>475</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>66027</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>4760</v>
+      </c>
+      <c r="C74" t="s">
+        <v>548</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>476</v>
+        <v>549</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>477</v>
+        <v>550</v>
       </c>
       <c r="J74" t="s">
-        <v>478</v>
+        <v>551</v>
       </c>
       <c r="K74" t="s">
-        <v>479</v>
+        <v>552</v>
       </c>
       <c r="L74" t="s">
-        <v>480</v>
+        <v>553</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="O74" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -6684,56 +7183,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>481</v>
+        <v>554</v>
       </c>
       <c r="X74" t="s">
-        <v>482</v>
+        <v>555</v>
       </c>
       <c r="Y74" t="s">
-        <v>483</v>
+        <v>556</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>66027</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>112702</v>
+      </c>
+      <c r="C75" t="s">
+        <v>557</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="J75" t="s">
-        <v>486</v>
+        <v>560</v>
       </c>
       <c r="K75" t="s">
-        <v>487</v>
+        <v>561</v>
       </c>
       <c r="L75" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="O75" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="n">
@@ -6751,13 +7254,13 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>481</v>
+        <v>554</v>
       </c>
       <c r="X75" t="s">
-        <v>482</v>
+        <v>555</v>
       </c>
       <c r="Y75" t="s">
-        <v>489</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
